--- a/URS_Certifications-2-2.xlsx
+++ b/URS_Certifications-2-2.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="URS_Certifications-2-1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5650" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5650" uniqueCount="714">
   <si>
     <t>Название компании</t>
   </si>
@@ -2162,6 +2162,9 @@
   </si>
   <si>
     <t>РОССТАНДАРТ</t>
+  </si>
+  <si>
+    <t>GOST R 58139-2018</t>
   </si>
 </sst>
 </file>
@@ -2663,7 +2666,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2673,6 +2676,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3031,14 +3035,14 @@
   <dimension ref="A1:G1322"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="48.5546875" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" customWidth="1"/>
     <col min="4" max="4" width="32.88671875" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
     <col min="7" max="7" width="25.44140625" customWidth="1"/>
@@ -3127,7 +3131,7 @@
         <v>712</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>713</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -4991,7 +4995,7 @@
       <c r="B86" t="s">
         <v>70</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C86" s="5">
         <v>421716000000</v>
       </c>
       <c r="D86" t="s">

--- a/URS_Certifications-2-2.xlsx
+++ b/URS_Certifications-2-2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5650" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5650" uniqueCount="713">
   <si>
     <t>Название компании</t>
   </si>
@@ -2162,9 +2162,6 @@
   </si>
   <si>
     <t>РОССТАНДАРТ</t>
-  </si>
-  <si>
-    <t>GOST R 58139-2018</t>
   </si>
 </sst>
 </file>
@@ -3131,7 +3128,7 @@
         <v>712</v>
       </c>
       <c r="E4" t="s">
-        <v>713</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>

--- a/URS_Certifications-2-2.xlsx
+++ b/URS_Certifications-2-2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5650" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5652" uniqueCount="713">
   <si>
     <t>Название компании</t>
   </si>
@@ -3031,8 +3031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1322"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
+      <selection activeCell="D361" sqref="D361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5699,7 +5699,7 @@
         <v>6311039749</v>
       </c>
       <c r="D121" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="E121" t="s">
         <v>10</v>
@@ -5885,7 +5885,7 @@
         <v>6455053279</v>
       </c>
       <c r="D130" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="E130" t="s">
         <v>10</v>
@@ -5930,6 +5930,9 @@
       <c r="C132">
         <v>6455053279</v>
       </c>
+      <c r="D132" t="s">
+        <v>17</v>
+      </c>
       <c r="E132" t="s">
         <v>18</v>
       </c>
@@ -6361,7 +6364,7 @@
         <v>1651031226</v>
       </c>
       <c r="D152" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="E152" t="s">
         <v>10</v>
@@ -6476,7 +6479,7 @@
         <v>6455003006</v>
       </c>
       <c r="D157" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="E157" t="s">
         <v>10</v>
@@ -7214,7 +7217,7 @@
         <v>4705028323</v>
       </c>
       <c r="D190" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="E190" t="s">
         <v>10</v>
@@ -10966,6 +10969,9 @@
       <c r="C361">
         <v>7735007358</v>
       </c>
+      <c r="D361" t="s">
+        <v>712</v>
+      </c>
       <c r="E361" t="s">
         <v>32</v>
       </c>
@@ -29119,5 +29125,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/URS_Certifications-2-2.xlsx
+++ b/URS_Certifications-2-2.xlsx
@@ -3031,8 +3031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
-      <selection activeCell="D361" sqref="D361"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4904,7 +4904,7 @@
         <v>1639049837</v>
       </c>
       <c r="D82" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="E82" t="s">
         <v>10</v>

--- a/URS_Certifications-2-2.xlsx
+++ b/URS_Certifications-2-2.xlsx
@@ -3031,8 +3031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/URS_Certifications-2-2.xlsx
+++ b/URS_Certifications-2-2.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
-    <sheet name="URS_Certifications-2-1" sheetId="1" r:id="rId1"/>
+    <sheet name="URS_Certifications-2-2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -3031,8 +3031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1322"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G86" sqref="G86"/>
+    <sheetView tabSelected="1" topLeftCell="A510" workbookViewId="0">
+      <selection activeCell="A529" sqref="A529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3432,6 +3432,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
+      <c r="G17" s="1">
+        <v>46696</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -14710,7 +14713,7 @@
         <v>3663002167</v>
       </c>
       <c r="D528" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="E528" t="s">
         <v>10</v>
